--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533742.846129925</v>
+        <v>1637922.480580998</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>75.45713216103566</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>79.91534106849737</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.63721014851049</v>
       </c>
       <c r="F4" t="n">
-        <v>128.243386390055</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.4918089738213</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>63.25786276724599</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>26.45310935021839</v>
+        <v>108.3414156588002</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>127.4503987265498</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699669</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>18.79983676747892</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>30.20067097435919</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1342,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>173.7797061357541</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.2179706626115</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>8.616048582069928</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>185.4048731212365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>179.2499669408068</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.1798850986046</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>153.5842618151925</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.95525409458221</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>120.4424239494347</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>231.3119700802614</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.5757238861951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>105.989310737304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>131.7584887394903</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7058473537591</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,37 +4330,37 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794323</v>
@@ -4370,10 +4372,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4398,19 +4400,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158129</v>
@@ -4419,7 +4421,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>659.1173538559943</v>
+        <v>492.7661230698574</v>
       </c>
       <c r="C4" t="n">
-        <v>490.1811709280875</v>
+        <v>323.8299401419505</v>
       </c>
       <c r="D4" t="n">
-        <v>490.1811709280875</v>
+        <v>323.8299401419505</v>
       </c>
       <c r="E4" t="n">
-        <v>342.2680773456943</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218339</v>
@@ -4492,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242372</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036485</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995245</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9099329995245</v>
+        <v>674.4145879000971</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.1173538559943</v>
+        <v>674.4145879000971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1108.188411893048</v>
+        <v>1025.472950975289</v>
       </c>
       <c r="W7" t="n">
-        <v>1108.188411893048</v>
+        <v>1025.472950975289</v>
       </c>
       <c r="X7" t="n">
-        <v>880.1988609950312</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.406281851501</v>
+        <v>797.4834000772721</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>975.2294612008255</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C10" t="n">
-        <v>806.2932782729187</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>656.1766388605829</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>508.2635452781898</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2294612008255</v>
+        <v>812.5736815556431</v>
       </c>
     </row>
     <row r="11">
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5279,25 +5281,25 @@
         <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>417.9651836029407</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5464,22 +5466,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956954</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.346450813424</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,34 +5527,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>416.6057892068305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>269.7158417089202</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>102.5197424238001</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
         <v>2337.686731866304</v>
@@ -5944,16 +5946,16 @@
         <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.978273055629</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5987,19 +5989,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1353.195110654903</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6226,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>2418.621364762389</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>809.0422355233313</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2453.684166529966</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>2453.684166529966</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>3051.062654156518</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711125</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950412</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3079.453861511889</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C31" t="n">
-        <v>2924.318243516745</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D31" t="n">
-        <v>2774.201604104409</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E31" t="n">
-        <v>2626.288510522016</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024105</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024105</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053497</v>
+        <v>4498.739789984628</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076438</v>
+        <v>4279.13832500757</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420636</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V31" t="n">
-        <v>3999.301626420636</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W31" t="n">
-        <v>3709.884456383676</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X31" t="n">
-        <v>3481.894905485658</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y31" t="n">
-        <v>3261.102326342128</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2490.32382148308</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>2490.32382148308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3118.73869457197</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>2949.802511644064</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231728</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>133.1654045576509</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3810.596908582701</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3521.17973854574</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3521.17973854574</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>3300.38715940221</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6937,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7017,22 +7019,22 @@
         <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M36" t="n">
-        <v>3210.485548300425</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336244</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q36" t="n">
         <v>4654.193497445481</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.09861476989</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1039.109063871873</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.3164847283425</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4434.982778844407</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2490.323821483079</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2490.323821483079</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>3087.702309109631</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>3715.300272664238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,31 +7666,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>835.5837926935512</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>666.6476097656443</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>516.5309703533086</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>368.6178767709155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>368.6178767709155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602299</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565338</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667321</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523791</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>112.40476825349</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.61400951932583</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.6786642641539</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409392964</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>66.73277020259152</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>46.45968844823031</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.66255928343529</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.2291039219411</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>42.31058222398332</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>131.6952193743933</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>55.21102825632957</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.00892946589966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>180.533687599287</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>33.76564955277857</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>40.32043864788548</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26368,7 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.711960397751682e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.048154783551581e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815702</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815701</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26442,7 +26444,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993965.5468653585</v>
+        <v>-993965.546865358</v>
       </c>
       <c r="C6" t="n">
-        <v>334779.1988622338</v>
+        <v>334779.1988622333</v>
       </c>
       <c r="D6" t="n">
-        <v>334779.1988622338</v>
+        <v>334779.1988622344</v>
       </c>
       <c r="E6" t="n">
-        <v>86333.32195043583</v>
+        <v>86333.321950436</v>
       </c>
       <c r="F6" t="n">
-        <v>411745.7837577909</v>
+        <v>411745.783757791</v>
       </c>
       <c r="G6" t="n">
         <v>411745.783757791</v>
       </c>
       <c r="H6" t="n">
-        <v>411745.7837577911</v>
+        <v>411745.783757791</v>
       </c>
       <c r="I6" t="n">
+        <v>411745.783757791</v>
+      </c>
+      <c r="J6" t="n">
+        <v>194214.5813605137</v>
+      </c>
+      <c r="K6" t="n">
         <v>411745.7837577909</v>
       </c>
-      <c r="J6" t="n">
-        <v>194214.5813605135</v>
-      </c>
-      <c r="K6" t="n">
-        <v>411745.7837577912</v>
-      </c>
       <c r="L6" t="n">
-        <v>411745.7837577912</v>
+        <v>411745.7837577909</v>
       </c>
       <c r="M6" t="n">
         <v>326690.7558222793</v>
       </c>
       <c r="N6" t="n">
-        <v>411745.7837577909</v>
+        <v>411745.783757791</v>
       </c>
       <c r="O6" t="n">
-        <v>411745.7837577909</v>
+        <v>411745.7837577912</v>
       </c>
       <c r="P6" t="n">
-        <v>411745.7837577909</v>
+        <v>411745.783757791</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024449</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>289.8157596099717</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>132.7967524980587</v>
       </c>
       <c r="F4" t="n">
-        <v>17.17766163287624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.2420326896593</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>306.4732379112231</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>225.6845339736096</v>
+        <v>143.7962276650278</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>227.2326428941331</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>331.8898480104163</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>161.0321434144584</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>115.2203770485721</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31838,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>314.1059622342723</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>232.153703594058</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33028,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305189</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>209.2370040367367</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>399.1902208908123</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>134.72848811719</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673337</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>399.1902208908123</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>176.2645232599133</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>90.01966967203964</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561599</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>71.3955650623777</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.3487819164533</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533519</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0.754080702859717</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531539</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.3487819164533</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1637922.480580998</v>
+        <v>1633909.870567004</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103566</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>103.3642763035227</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.63721014851049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>283.6826708844488</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>63.25786276724599</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>46.50187133648327</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1113,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>108.3414156588002</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8756750054782</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>17.35112070699669</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.79983676747892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.7384661432547</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>129.009682740596</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>251.0718348128881</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.9742741983392</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>179.2499669408068</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>39.39795577638954</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>38.95525409458221</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>43.87236189622237</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7058473537591</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>221.1801025849732</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492.7661230698574</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>323.8299401419505</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>323.8299401419505</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040962</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835075</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>902.4041387981144</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>674.4145879000971</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y4" t="n">
-        <v>674.4145879000971</v>
+        <v>1196.022040344356</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1880.322960879924</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1658.55634544945</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1369.453478575093</v>
       </c>
       <c r="V7" t="n">
-        <v>1025.472950975289</v>
+        <v>1114.768990369206</v>
       </c>
       <c r="W7" t="n">
-        <v>1025.472950975289</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="X7" t="n">
-        <v>797.4834000772721</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="Y7" t="n">
-        <v>797.4834000772721</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1546.221676928587</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1160.433424330343</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5839474470786</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.5736815556431</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5664,7 +5664,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2804.65264778894</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>2635.716464861033</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2485.599825448698</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3207.09369176271</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>2986.30111261918</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2815.530845237133</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309226</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309226</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309226</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4498.739789984628</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4279.13832500757</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.063098351768</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.378610145881</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W31" t="n">
-        <v>3445.96144010892</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X31" t="n">
-        <v>3217.971889210903</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y31" t="n">
-        <v>2997.179310067373</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6703,19 +6703,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8772357154528</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>274.8772357154528</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>274.8772357154528</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>133.1654045576509</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3260.450525729772</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>3091.514342801865</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>2941.39770338953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4434.982778844407</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4180.29829063852</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>3890.88112060156</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>3662.891569703542</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>3442.098990560012</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.5813165460164</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>385.6451336181095</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2237.790261293512</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2018.188796316454</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.113569660651</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1474.429081454764</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1185.011911417804</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>957.0223605197863</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.2297813762561</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17.42427990597318</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.11263957635606</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409392964</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>46.45968844823031</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>57.2291039219411</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.31058222398332</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>181.8372934928148</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.32043864788548</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>30.95754073885476</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26340,7 +26340,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
@@ -26349,7 +26349,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985041</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>6.711960397751682e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.048154783551581e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815702</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815701</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993965.546865358</v>
+        <v>-993965.5468653588</v>
       </c>
       <c r="C6" t="n">
-        <v>334779.1988622333</v>
+        <v>334779.1988622338</v>
       </c>
       <c r="D6" t="n">
-        <v>334779.1988622344</v>
+        <v>334779.198862234</v>
       </c>
       <c r="E6" t="n">
-        <v>86333.321950436</v>
+        <v>85985.94269607929</v>
       </c>
       <c r="F6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.4045034338</v>
       </c>
       <c r="G6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.404503434</v>
       </c>
       <c r="H6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.4045034342</v>
       </c>
       <c r="I6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.4045034341</v>
       </c>
       <c r="J6" t="n">
-        <v>194214.5813605137</v>
+        <v>193867.2021061566</v>
       </c>
       <c r="K6" t="n">
-        <v>411745.7837577909</v>
+        <v>411398.4045034341</v>
       </c>
       <c r="L6" t="n">
-        <v>411745.7837577909</v>
+        <v>411398.404503434</v>
       </c>
       <c r="M6" t="n">
-        <v>326690.7558222793</v>
+        <v>326343.3765679224</v>
       </c>
       <c r="N6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.404503434</v>
       </c>
       <c r="O6" t="n">
-        <v>411745.7837577912</v>
+        <v>411398.4045034342</v>
       </c>
       <c r="P6" t="n">
-        <v>411745.783757791</v>
+        <v>411398.4045034341</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>76.46770387841455</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>132.7967524980587</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>71.00037073623412</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>306.4732379112231</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>143.2671539949586</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>143.7962276650278</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>71.00037073623326</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>331.8898480104163</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.0321434144584</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305189</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>134.72848811719</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>0.754080702859717</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1633909.870567004</v>
+        <v>1635670.40086979</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>78.78083674902071</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.3642763035227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>97.90411925715613</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>298.7307299422367</v>
       </c>
       <c r="D5" t="n">
-        <v>283.6826708844488</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>46.50187133648327</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>200.6809926374358</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>335.8756750054782</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>223.607393651088</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7384661432547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>129.009682740596</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>78.89395497654104</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>15.9345014072213</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>74.539171596092</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>19.86507844888251</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>74.96337793488061</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>39.39795577638954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>133.1319933510091</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740432</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>43.87236189622237</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>221.1801025849732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943747</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>1021.570547268604</v>
       </c>
       <c r="C4" t="n">
         <v>922.6774975139006</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,7 +4515,7 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
@@ -4530,10 +4530,10 @@
         <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.022040344356</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1196.022040344356</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535337</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796419</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1880.322960879924</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1658.55634544945</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1369.453478575093</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.768990369206</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W7" t="n">
-        <v>825.3518203322459</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="X7" t="n">
-        <v>825.3518203322459</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>994.2880032601529</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="C8" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.221676928587</v>
+        <v>1546.221676928588</v>
       </c>
       <c r="E8" t="n">
-        <v>1160.433424330343</v>
+        <v>1160.433424330344</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>749.4475195407365</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>334.375069385733</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535339</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,13 +5032,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111714</v>
@@ -5059,19 +5059,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311365</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367902</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>336.304854854397</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>336.304854854397</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>169.108755569277</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>169.108755569277</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613763</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>418.820049457785</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>251.6239501726649</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,22 +7186,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>781.8178837532263</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.5276345711974</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.968678544967</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.1760994014371</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.42427990597318</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>6.726664722473501</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>65.33133491134325</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>85.45266000108569</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>185.1299285698839</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>181.8372934928148</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>30.95754073885476</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26377,19 +26377,19 @@
         <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815701</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993965.5468653588</v>
+        <v>-993965.5468653589</v>
       </c>
       <c r="C6" t="n">
-        <v>334779.1988622338</v>
+        <v>334779.198862234</v>
       </c>
       <c r="D6" t="n">
-        <v>334779.198862234</v>
+        <v>334779.1988622341</v>
       </c>
       <c r="E6" t="n">
-        <v>85985.94269607929</v>
+        <v>86298.58402500038</v>
       </c>
       <c r="F6" t="n">
-        <v>411398.4045034338</v>
+        <v>411711.0458323551</v>
       </c>
       <c r="G6" t="n">
-        <v>411398.404503434</v>
+        <v>411711.0458323551</v>
       </c>
       <c r="H6" t="n">
-        <v>411398.4045034342</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="I6" t="n">
-        <v>411398.4045034341</v>
+        <v>411711.0458323551</v>
       </c>
       <c r="J6" t="n">
-        <v>193867.2021061566</v>
+        <v>194179.8434350778</v>
       </c>
       <c r="K6" t="n">
-        <v>411398.4045034341</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="L6" t="n">
-        <v>411398.404503434</v>
+        <v>411711.0458323557</v>
       </c>
       <c r="M6" t="n">
-        <v>326343.3765679224</v>
+        <v>326656.0178968438</v>
       </c>
       <c r="N6" t="n">
-        <v>411398.404503434</v>
+        <v>411711.0458323551</v>
       </c>
       <c r="O6" t="n">
-        <v>411398.4045034342</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="P6" t="n">
-        <v>411398.4045034341</v>
+        <v>411711.0458323551</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>303.9530049144599</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.46770387841455</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>69.34270184147171</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182877087</v>
       </c>
       <c r="D5" t="n">
-        <v>71.00037073623412</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>143.2671539949586</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>85.84200569915518</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>71.00037073623326</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.00037073623241</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
@@ -35503,7 +35503,7 @@
         <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
